--- a/500all/speech_level/speeches_CHRG-114hhrg97159.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97159.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Neugebauer. The Subcommittee on Financial Institutions and Consumer Credit will come to order.    Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``National Credit Union Administration Operations and Budget.'' Before I begin, I would like to note that there are several National Credit Union Administration (NCUA) staff members here today. And committee policy is one staff member per witness. This is to ensure public participation. In the event we have more public audience members come in, we will ask some of the NCUA staff to head to our overflow room upstairs.    I would like to thank Chairman Matz for being flexible with our schedule. As you know, we were scheduled to have this hearing tomorrow. And then the leadership decided we weren't going to be here tomorrow. The Chair was gracious enough to change her schedule. And we appreciate that.    I am going to now recognize myself for 5 minutes for an opening statement. Good afternoon to the committee. Financial institutions are the backbone of Main Street America. Credit unions particularly share a unique relationship with communities. After all, they are the core of the cooperatives. They help bring unserved and underserved customers into the financial mainstream. They provide the first credit card for young adults trying to build credit. They help the first-time home buyer purchase the home they have been dreaming of. And often they are the last corporate citizen left standing in many rural districts, including many areas of my own district. Perhaps most importantly, though, they are experts on relationship banking, helping to customize products to fit the needs of their customer base.    Unfortunately, credit unions, like community banks, are suffering from the one-size-fits-all regulatory actions of the Federal regulators. For example, some credit unions now undergo stress testing like their larger bank counterparts. Because of this increased regulatory burden and the related compliance costs, we have seen a massive consolidation of credit unions, and inflexible product standardization, which has limited some of the customer choices.    Data from the National Credit Union Administration shows that we lost nearly 1,000 credit unions between 2010 and 2014. This trend presents a threat to communities across the country, especially rural and semi-urban areas such as the 19th District of Texas. I worry that without some regulatory flexibility, credit unions will be less able to meet local needs, will stop offering products, or consolidate. To me, this signals problems in the health of the credit union industry.    Today's hearing will mark the first time since 2011 that the NCUA Chair has testified before Congress. As with any Federal agency, it is imperative that we conduct vigorous oversight of budgeting and operations. This ensures that the money paid into the system by the credit unions is being spent appropriately and that the taxpayers remain protected by a strong Share Insurance Fund. Further, it ensures rigorous debate of policy decisions made by the NCUA.    NCUA has undertaken significant regulatory policy changes under Chair Matz's leadership. And it is necessary to understand how these actions are affecting the health of the credit union system. Today, our Members will get to tackle both of those tasks. During today's hearing, I am hopeful that Chair Matz will address two issues in particular.    First, NCUA's budget has increased each year since 2008, sometimes in double digit percentages. However, during the same time, the number of credit unions has dropped by nearly a quarter. I hope to hear Chair Matz outline clear justifications for this budget increase that does not appear to be matched to other supervisory demands.    Second, I am concerned that the NCUA has not appropriately outlined how it will address the industry's best practice of using capital buffers on top of regulatory capital requirements. The NCUA must clearly signal how it plans to supervise this industry's best practice to ensure capital is efficiently put to use and that there remains robust and safe credit availability for our constituents.    I look forward to hearing Chair Matz's perspective on these important issues and more during today's hearing. Thank you.    And now, with that, I yield to the ranking member of the subcommittee, Mr. Clay.</t>
   </si>
   <si>
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    And thank you, Chair Matz, for your testimony. And, Mr. Chairman, I would like to relay something pertaining to your remarks about credit unions and what purpose they serve. As a young adult with my first job, I applied for an auto loan with my community bank, where I had checking and savings accounts, and was denied the loan and was forced to go join the Wright Patman Credit Union, where I was approved for the loan, which I paid off in half the time. So they took a chance on me. And I am certainly going to take a chance on credit unions. So thank you.    Like most banking regulators, the NCUA's budget is derived from the entities that they regulate, an arrangement designed to insulate the Administration from political pressure. Such an arrangement should not, however, trade the pressure of the congressional appropriations process for pressure from the credit union industry to shape their budget, an arrangement that was agency policy from 2001 to 2008, but that undermined the Administration's ability to respond to financial crises and its ability to prevent losses to the Share Insurance Fund.    I look forward to a discussion that actually reflects the concerns that credit unions have in their day-to-day core operations, whether they be proposals to allow them to raise supplemental capital or expand member business lending or other regulatory relief proposals. I look forward to hearing more about how we can work with the NCUA to ensure that the regulatory environment for our credit unions is one that allows them to thrive but that also protects members and the Share Insurance Fund. And thank you again for your testimony and your leadership.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412447</t>
   </si>
   <si>
-    <t>Frank C. Guinta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guinta. Thank you very much, Mr. Chairman.    Good afternoon, Chair Matz.    It is a privilege and an honor to be representing the First Congressional District of New Hampshire, where the first ever credit union was founded in the United States. In 1908, St. Mary's Bank emerged in a small town called Manchester, which is my hometown. Since then, Manchester has grown to be the State's largest city. And surrounding the City came more credit unions and community banks. Now there are 27 credit unions in New Hampshire, 14 of which are in my district.    However, community banks and credit unions have been consolidating at an alarming rate. According to the quarterly data posted on the NCUA's website, credit unions have declined 52 percent from 1990 to now. I sit here and ask myself, why is this happening to our community financial institutions? Consumer choice, I think and hope, is something that we as Americans all value. However, we have seen this negative trend continue and even be enhanced, I think, by rigorous regulatory requirements by the Dodd-Frank Act.    You, Madam Chair, called 2015 the year of regulation relief. And I certainly hope that is true. I look forward to working with you in that approach because I think the harmful regulations our financial institutions have faced need to be addressed immediately. So I very much thank you for coming here today and working with us. And I look forward to hearing your testimony.    I yield back the balance of my time.</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>412509</t>
   </si>
   <si>
-    <t>Kyrsten Sinema</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Chairman Neugebauer and Ranking Member Clay, for holding this very important and timely hearing.    As you may know, Congressman Mulvaney and I are sponsors of bipartisan legislation to bring greater transparency to the National Credit Union Administration's budget process by requiring a public hearing on the budget before adoption. This legislation is simple and straightforward. It would require NCUA to publish a draft budget on an annual basis and then hold a public hearing with notice and opportunity for public comment before the NCUA Board makes a final determination on how funds are spent.    As NCUA is funded almost exclusively through fees assessed on credit unions, we believe the public and the credit unions that are regulated should have an opportunity to weigh in as NCUA considers its annual budget.    Between 2001 and 2008, NCUA held public hearings. I look forward to hearing from today's witness about why these hearings have been discontinued and how the agency can improve the current budget process to make it more open and transparent.    Again, thank you, Chairman Neugebauer and Ranking Member Clay for holding today's hearing.    And thank you, Chair Matz, for sharing your expert view with us today.</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Matz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Matz. Thank you. Good afternoon, Chairman Neugebauer, Ranking Member Clay, and subcommittee members. Thank you for inviting me to appear before you.    When I came back to NCUA as chairman in 2009, in the wake of the Great Recession, the credit union system was on the brink of collapse. To prevent this, we developed an unprecedented mechanism to securitize $50 billion in toxic corporate credit union assets. Within a few months, 351 consumer credit unions, holding nearly $52 billion in assets, were close to failing.    Compounding the situation, NCUA's budget and staffing in the years leading to the crisis had not kept pace with credit unions' growth and increasing complexity. In fact, during the 7 years leading up to the financial crisis, NCUA cut a total of 91 staff positions, even though credit union assets had increased by 73 percent. During the same period, NCUA's budget, as a percentage of credit union assets, declined by 35 percent. NCUA was understaffed and underresourced.    We soon rectified these problems while preventing any unnecessary budget and staffing growth. To efficiently manage shifting workloads, we reallocated existing resources wherever possible. For example, to provide more supervision to credit unions that pose greater risks to the Share Insurance Fund, we have reallocated exam hours away from smaller credit unions towards larger ones, rather than simply adding new examiners.    The NCUA budget is developed from the bottom up each year, using a zero-based budgeting process. Every office in the agency must justify its staffing level and each expenditure. Through this process, we efficiently allocate resources towards priorities detailed in NCUA's strategic plan. The full plan and budget details are posted on our website.    NCUA leads financial institution regulators in budget transparency. Our website contains a dedicated budget resource center that includes annual fund audits, budget summaries and slides, office-by-office spending plans, and a host of other budget information exceeding what other financial regulators disclose.    Among my top priorities are providing transparency and communicating effectively with all stakeholders. To this end, I have held 18 in-person listening sessions, hosted 11 online townhall webinars, and crisscrossed the country speaking to and meeting with tens of thousands of credit union officials representing every State. This is one of the most important aspects of my job because I receive the most useful feedback when I hear from the people who actually run credit unions.    I heard their comments about our exam process. I heard we needed to target regulations to risks. I heard our member business loan rule was too prescriptive. I heard we should remove the cap on fixed assets. I heard we needed to improve how we designate low-income credit unions. I heard we needed to streamline how we approve fields of membership. And I heard we needed to reduce burdens on small credit unions.    So, I am here to tell you we listened, and we acted. We relieved unnecessary burdens as we have modernized our regulations. The NCUA Board remains committed to providing regulatory relief that does not compromise safety and soundness. We continue to act on all practical suggestions as we move toward a principles-based regulatory framework and enhance credit union powers within our authority.    As NCUA eases regulatory burdens and responds to emerging risks, our supervision budget and staff must keep pace with credit unions' growth and complexity. Reports by GAO and our inspector general underscore this need.    Today, key credit union system metrics have recovered to pre-crisis levels. And, notably, the percentage of assets in troubled credit unions has been reduced to a manageable level, down to just 1 percent. The recovering economy is, in part, responsible for the improvements in credit union performance. Credit is also due to the CEOs, managers, and boards who make tough choices to keep their credit unions solvent, as well as the NCUA staff who supervised credit unions under very difficult circumstances.    We are now on the right track. Both the credit union system and NCUA are in remarkably better condition than when I became chairman. I will continue working to protect the safety and soundness of credit unions and protect the 100 million account holders who are federally insured by NCUA. I look forward to your questions.    [The prepared statement of Chairman Matz can be found on page 32 of the appendix.]</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank the chairman.    Chair Matz, I get a lot of questions back home about the overhead transfer rate, the amount of money that you all take out of the security insurance fund to use for your overhead. You mention it in your testimony and say that the operating budget is reimbursed from the State insurance fund. That is the OTR, so the overhead transfer. You go on to say that your methodology for calculating the overhead transfer rate was validated in 2011 and 2013 by PricewaterhouseCoopers. On your website, and I see you have something there as well, it says that: While PricewaterhouseCoopers made recommendations to improve the process on the OTR, overall, they determined that the methodology was sound and reasonable.    So I did something that I think is fairly reasonable, which is I went to your website to get the overhead transfer rate review, which is the one that was done for you by PricewaterhouseCoopers that you mentioned in your opening testimony and on the website. And when I turned to the first section, which I think is a fairly reasonable section for somebody to go to to try and get up-to-speed on it, the executive summary, I got to page 5, and it says: ``The findings and conclusions of this study, which are based on an analysis of available facts and circumstances, are presented below.'' And I get an entirely redacted section. In fact, that happens a lot. There is a bunch of different places that are redacted. I think 15 pages are redacted.    I tried to figure out why that was. And someplace on the website, you all also mentioned Section (b)(4) of the Freedom of Information Act. You go to read that, and it says that you don't have to--or it is okay to redact essentially things that are trade secrets and commercial or financial information obtained from a person or privileged or confidential material. All of which is cool. Okay.    Until I get to this, which is the unredacted copy of your agreement. By the way, did you know that I have this as you sit there today?</t>
   </si>
   <si>
@@ -253,10 +235,7 @@
     <t xml:space="preserve">    Chairman Neugebauer. I now recognize the gentleman from Georgia, Mr. Scott, for 5 minutes.</t>
   </si>
   <si>
-    <t>400145</t>
-  </si>
-  <si>
-    <t>Scott Garrett</t>
+    <t>400363</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Scott. Thank you very much, Mr. Chairman.    Chair Matz, let me make sure now, the NCUA, the National Credit Union Administration, your budget is funded through fees from your credit unions across the country, is that correct?</t>
@@ -358,9 +337,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman.    Madam Chair, the NCUA has said that a limited number of credit unions would be downgraded if the risk-based capital proposal was in place today. I am interested in what impact this proposal would have had if it had been in place at the height of the fiscal crisis in 2009. Has the agency prepared or seen any analysis of how many credit unions would have been downgraded during the crisis? And of those that would have been downgraded under the proposal, how are they doing today without the proposal having been in place at the time? Do you kind of follow that question?</t>
   </si>
   <si>
@@ -418,9 +394,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you very much.    Chair Matz, I speak to my credit unions all the time. And, quite frankly, they have never raised transparency of the budget. Is this a really big issue with the credit unions, the </t>
   </si>
   <si>
@@ -478,9 +451,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman.    Madam Chair, last year, the day before this committee scheduled a markup on H.R. 4042, which is my legislation to require a stop and study of MSAs, you sent a letter asking that, and I quote, ``the House Financial Services Committee refrain from considering amendments to tomorrow's markup related to NCUA's risk-based capital rule.''    I have never received a letter from an Executive Branch agency asking me not to do my job, which is to legislate. Can you please explain?</t>
   </si>
   <si>
@@ -583,9 +553,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman.    Chair Matz, I would like to kind up pick up on that. In 2014, and again on July 20, 2015, the former chairman of this committee, Barney Frank, an author of the Dodd-Frank bill, stated that he did not believe that asset managers should be regulated as SIFIs. Would you state your perspective then on why you believe that they should be?</t>
   </si>
   <si>
@@ -709,9 +676,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman.    And thank you, Chair Matz, for being here. In NCUA's 2014 annual report, it is noted that 17 of its 15 credit union failures occurred because of instances of fraud and ended up costing the Share Insurance Fund $36.5 million as well as, in October 2014, at the NCUA Board meeting, your CFO Mary Woodson stated that 94 percent of the losses to the Share Insurance Fund were related to fraud. Are these fraudulent-related losses to the Share Insurance Fund, are those of concern to you?</t>
   </si>
   <si>
@@ -793,9 +757,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman.    And thank you, Chair Matz, for being here today. Chair Matz, we have become aware of an NCUA policy of awarding on-the-spot bonuses and cash awards to employees, cash bonuses of up to $2,500 that can be paid to employees twice a year, and they get these for services going above and beyond the call of duty. We have heard that the NCUA's HR department bragged, actually bragged about paying over $1.2 million in these bonuses in 2014, frankly, for just doing your job.    Now, from what I can see, there appears to be little to no control over these payments. Any manager can give a cash award to anyone with as little as a one-paragraph justification. We are told that this program has become commonplace within the agency. So my first question is, who approves these bonuses, and what policies and controls are in place to manage the distribution of these cash rewards?</t>
   </si>
   <si>
@@ -895,9 +856,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman.    Chair Matz, I want to continue along the lines of questioning from Mr. Williams over here regarding not just bonuses but some of the, what I would consider irregularities, in the NCUA's 2015 budget.    In the Office of Consumer Protection, pay and benefits for 2015 are $7.3 million, up 9 percent, I believe, or equal to $600,000, yet the office has only added 2 people. What accounts for this large budget increase?</t>
   </si>
   <si>
@@ -982,9 +940,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you, Mr. Chairman.    And thank you very much, Chair Matz, for being with us today. It is good to see you. I want to thank the NCUA for its recent efforts in working to provide regulatory relief to credit unions that are sound, and safe, and stable. And I think doing so will be beneficial not only to the credit union members, but also to the American economy. I also appreciate your testimony today in support of legislation that Mr. Meeks and I have crafted to provide relief to credit unions from the member business lending cap. As you expressed, particularly for smaller credit unions, the current statutory cap makes it very difficult or impossible for credit unions to successfully support the small business community.    While your testimony specifically cites your support for this bill, H.R. 1188, the Credit Union Small Business Cap Jobs Creation Act, I also want to get your thoughts on H.R. 1422, the Credit Union Residential Loan Parity Act. As you know, this bipartisan bill would correct the disparity between banks and credit unions in the treatment of loans made to finance the purchase of one-to-four-unit non-owner-occupied residential dwellings. I see this as a simple straightforward fix, especially when you consider the potential positive impact in helping finance investment in multi-family and affordable housing.    So I was going to ask you, Chair Matz, in this legislation, would the NCUA support this, and do you see a difference between one-to-four-unit loans and commercial business loans?</t>
   </si>
   <si>
@@ -1004,9 +959,6 @@
   </si>
   <si>
     <t>400646</t>
-  </si>
-  <si>
-    <t>Michael G. Fitzpatrick</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Fitzpatrick. Thank you, Mr. Chairman.    I would like to yield my time to Mr. Mulvaney of South Carolina.</t>
@@ -1525,11 +1477,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1549,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1577,11 +1525,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1601,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1629,11 +1573,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1653,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1681,11 +1621,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1705,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1733,11 +1669,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1757,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1785,11 +1717,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1809,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1837,11 +1765,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1861,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1889,11 +1813,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1913,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1939,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1965,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1991,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2017,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2043,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2069,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2097,11 +2005,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2121,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2147,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2173,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2199,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2225,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
         <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2251,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2277,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2303,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2329,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2355,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2381,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2407,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2433,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2459,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2485,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2511,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2537,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2563,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2589,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2615,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2641,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2667,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2693,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2719,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2745,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2771,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2797,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2823,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2849,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2875,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2903,11 +2749,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2927,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2955,11 +2797,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2979,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3005,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3031,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3057,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3083,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3109,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3135,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>79</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3161,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3187,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3213,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3239,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3265,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3291,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3317,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3343,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3369,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3395,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3421,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3447,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3473,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3499,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3525,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3551,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3577,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3603,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3629,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3655,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3681,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3707,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3733,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3759,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3785,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3811,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s">
-        <v>80</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3839,11 +3613,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3863,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G92" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3889,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3915,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3941,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3967,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3993,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4019,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
         <v>113</v>
-      </c>
-      <c r="G98" t="s">
-        <v>114</v>
-      </c>
-      <c r="H98" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4045,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4071,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4097,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4123,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4149,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4175,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4201,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4227,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4255,11 +3997,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4279,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4307,11 +4045,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4331,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
-      </c>
-      <c r="G110" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4357,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4383,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4409,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4435,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4461,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4487,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4513,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4539,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s">
+        <v>125</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
         <v>134</v>
-      </c>
-      <c r="H118" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4565,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4591,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4617,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4643,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4669,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4695,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>133</v>
-      </c>
-      <c r="G124" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4721,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4747,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" t="s">
-        <v>134</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4775,11 +4477,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4799,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>153</v>
-      </c>
-      <c r="G128" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4825,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4851,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
-      </c>
-      <c r="G130" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4877,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4903,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
-      </c>
-      <c r="G132" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4929,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4955,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
-      </c>
-      <c r="G134" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4981,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5007,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
+        <v>144</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
         <v>153</v>
-      </c>
-      <c r="G136" t="s">
-        <v>154</v>
-      </c>
-      <c r="H136" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5033,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5059,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>153</v>
-      </c>
-      <c r="G138" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5085,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5111,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>153</v>
-      </c>
-      <c r="G140" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5137,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5163,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>153</v>
-      </c>
-      <c r="G142" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5189,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5215,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>153</v>
-      </c>
-      <c r="G144" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5241,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5267,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>153</v>
-      </c>
-      <c r="G146" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5293,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5319,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5345,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5371,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>153</v>
-      </c>
-      <c r="G150" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5397,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5423,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>153</v>
-      </c>
-      <c r="G152" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5449,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5475,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>153</v>
-      </c>
-      <c r="G154" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5501,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5527,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>153</v>
-      </c>
-      <c r="G156" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5553,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5579,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>153</v>
-      </c>
-      <c r="G158" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5605,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>26</v>
-      </c>
-      <c r="G159" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5633,11 +5269,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5657,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>153</v>
-      </c>
-      <c r="G161" t="s">
-        <v>154</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5685,11 +5317,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5709,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
-      </c>
-      <c r="G163" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5735,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5761,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
-      </c>
-      <c r="G165" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5787,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5813,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="G167" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5839,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>26</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5865,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
-      </c>
-      <c r="G169" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5891,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
-      </c>
-      <c r="G170" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5917,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5943,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>26</v>
-      </c>
-      <c r="G172" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5969,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s">
+        <v>178</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>189</v>
-      </c>
-      <c r="H173" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5995,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>26</v>
-      </c>
-      <c r="G174" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6021,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6047,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6073,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
-      </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6099,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>26</v>
-      </c>
-      <c r="G178" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6125,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6151,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>26</v>
-      </c>
-      <c r="G180" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6177,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6203,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6229,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>188</v>
-      </c>
-      <c r="G183" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6255,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>26</v>
-      </c>
-      <c r="G184" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6281,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>188</v>
-      </c>
-      <c r="G185" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6307,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
-      </c>
-      <c r="G186" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6333,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>188</v>
-      </c>
-      <c r="G187" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6359,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>26</v>
-      </c>
-      <c r="G188" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6385,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>188</v>
-      </c>
-      <c r="G189" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6411,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
-      </c>
-      <c r="G190" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6437,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>188</v>
-      </c>
-      <c r="G191" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6463,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>26</v>
-      </c>
-      <c r="G192" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6489,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>188</v>
-      </c>
-      <c r="G193" t="s">
-        <v>189</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6517,11 +6085,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6541,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6567,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>26</v>
-      </c>
-      <c r="G196" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6593,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6619,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
-      </c>
-      <c r="G198" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6645,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6671,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
-      </c>
-      <c r="G200" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6697,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6723,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>26</v>
-      </c>
-      <c r="G202" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6751,11 +6301,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6775,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>26</v>
-      </c>
-      <c r="G204" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6801,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6829,11 +6373,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6853,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>230</v>
-      </c>
-      <c r="G207" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6879,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
-      </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6905,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
-      </c>
-      <c r="G209" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6931,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>26</v>
-      </c>
-      <c r="G210" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6957,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
-      </c>
-      <c r="G211" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6983,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>26</v>
-      </c>
-      <c r="G212" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7009,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
-      </c>
-      <c r="G213" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7035,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>26</v>
-      </c>
-      <c r="G214" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7061,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
-      </c>
-      <c r="G215" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7087,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>26</v>
-      </c>
-      <c r="G216" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7113,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
+        <v>219</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
         <v>230</v>
-      </c>
-      <c r="G217" t="s">
-        <v>231</v>
-      </c>
-      <c r="H217" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7139,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>26</v>
-      </c>
-      <c r="G218" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7165,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>230</v>
-      </c>
-      <c r="G219" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7191,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>26</v>
-      </c>
-      <c r="G220" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7217,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>230</v>
-      </c>
-      <c r="G221" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7243,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>26</v>
-      </c>
-      <c r="G222" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7269,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>230</v>
-      </c>
-      <c r="G223" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7295,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>26</v>
-      </c>
-      <c r="G224" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7321,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>230</v>
-      </c>
-      <c r="G225" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7347,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>26</v>
-      </c>
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7373,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>230</v>
-      </c>
-      <c r="G227" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7399,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>26</v>
-      </c>
-      <c r="G228" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7425,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>230</v>
-      </c>
-      <c r="G229" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7451,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>26</v>
-      </c>
-      <c r="G230" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7479,11 +6973,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7503,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>230</v>
-      </c>
-      <c r="G232" t="s">
-        <v>231</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7531,11 +7021,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7555,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>258</v>
-      </c>
-      <c r="G234" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7581,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
-      </c>
-      <c r="G235" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7607,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>258</v>
-      </c>
-      <c r="G236" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7633,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
-      </c>
-      <c r="G237" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7659,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>258</v>
-      </c>
-      <c r="G238" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7685,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
-      </c>
-      <c r="G239" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7711,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>258</v>
-      </c>
-      <c r="G240" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7737,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
-      </c>
-      <c r="G241" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7763,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>258</v>
-      </c>
-      <c r="G242" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7789,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>26</v>
-      </c>
-      <c r="G243" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7815,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>258</v>
-      </c>
-      <c r="G244" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7841,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>26</v>
-      </c>
-      <c r="G245" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7867,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
+        <v>246</v>
+      </c>
+      <c r="G246" t="s"/>
+      <c r="H246" t="s">
         <v>258</v>
-      </c>
-      <c r="G246" t="s">
-        <v>259</v>
-      </c>
-      <c r="H246" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7893,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>26</v>
-      </c>
-      <c r="G247" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7919,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>258</v>
-      </c>
-      <c r="G248" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7945,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>26</v>
-      </c>
-      <c r="G249" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7971,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>258</v>
-      </c>
-      <c r="G250" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7997,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>26</v>
-      </c>
-      <c r="G251" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8023,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>258</v>
-      </c>
-      <c r="G252" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8049,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>26</v>
-      </c>
-      <c r="G253" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8075,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>258</v>
-      </c>
-      <c r="G254" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8101,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>26</v>
-      </c>
-      <c r="G255" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8127,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>258</v>
-      </c>
-      <c r="G256" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8153,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>26</v>
-      </c>
-      <c r="G257" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8179,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>258</v>
-      </c>
-      <c r="G258" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8205,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>26</v>
-      </c>
-      <c r="G259" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8231,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>258</v>
-      </c>
-      <c r="G260" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8257,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>26</v>
-      </c>
-      <c r="G261" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8283,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>258</v>
-      </c>
-      <c r="G262" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8309,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>26</v>
-      </c>
-      <c r="G263" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8335,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>258</v>
-      </c>
-      <c r="G264" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8361,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>26</v>
-      </c>
-      <c r="G265" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8387,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>258</v>
-      </c>
-      <c r="G266" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8413,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>26</v>
-      </c>
-      <c r="G267" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8439,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>258</v>
-      </c>
-      <c r="G268" t="s">
-        <v>259</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8467,11 +7885,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8491,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>292</v>
-      </c>
-      <c r="G270" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8517,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>26</v>
-      </c>
-      <c r="G271" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8543,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>292</v>
-      </c>
-      <c r="G272" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8569,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>26</v>
-      </c>
-      <c r="G273" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8595,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>292</v>
-      </c>
-      <c r="G274" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8621,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>26</v>
-      </c>
-      <c r="G275" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8647,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>292</v>
-      </c>
-      <c r="G276" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8673,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>26</v>
-      </c>
-      <c r="G277" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8699,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>292</v>
-      </c>
-      <c r="G278" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8725,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>26</v>
-      </c>
-      <c r="G279" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8751,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>292</v>
-      </c>
-      <c r="G280" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8777,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>26</v>
-      </c>
-      <c r="G281" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8803,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
+        <v>279</v>
+      </c>
+      <c r="G282" t="s"/>
+      <c r="H282" t="s">
         <v>292</v>
-      </c>
-      <c r="G282" t="s">
-        <v>293</v>
-      </c>
-      <c r="H282" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8829,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>26</v>
-      </c>
-      <c r="G283" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8855,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>292</v>
-      </c>
-      <c r="G284" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8881,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>26</v>
-      </c>
-      <c r="G285" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8907,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>292</v>
-      </c>
-      <c r="G286" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8933,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>26</v>
-      </c>
-      <c r="G287" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8959,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>292</v>
-      </c>
-      <c r="G288" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8985,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>26</v>
-      </c>
-      <c r="G289" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9011,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>292</v>
-      </c>
-      <c r="G290" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9037,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>26</v>
-      </c>
-      <c r="G291" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9063,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>292</v>
-      </c>
-      <c r="G292" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9089,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>26</v>
-      </c>
-      <c r="G293" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9115,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>292</v>
-      </c>
-      <c r="G294" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9141,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>26</v>
-      </c>
-      <c r="G295" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9169,11 +8533,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9193,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>292</v>
-      </c>
-      <c r="G297" t="s">
-        <v>293</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9221,11 +8581,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>12</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9245,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>321</v>
-      </c>
-      <c r="G299" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9271,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>26</v>
-      </c>
-      <c r="G300" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9297,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>321</v>
-      </c>
-      <c r="G301" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9323,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>26</v>
-      </c>
-      <c r="G302" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9349,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>321</v>
-      </c>
-      <c r="G303" t="s">
-        <v>322</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9377,11 +8725,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9401,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>329</v>
-      </c>
-      <c r="G305" t="s">
-        <v>330</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9427,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>44</v>
-      </c>
-      <c r="G306" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9453,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>26</v>
-      </c>
-      <c r="G307" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9479,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>44</v>
-      </c>
-      <c r="G308" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9505,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>26</v>
-      </c>
-      <c r="G309" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9531,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
-      </c>
-      <c r="G310" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9557,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>26</v>
-      </c>
-      <c r="G311" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9583,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>44</v>
-      </c>
-      <c r="G312" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9609,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>26</v>
-      </c>
-      <c r="G313" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9635,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>44</v>
-      </c>
-      <c r="G314" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9661,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>26</v>
-      </c>
-      <c r="G315" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9687,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>44</v>
-      </c>
-      <c r="G316" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9713,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>26</v>
-      </c>
-      <c r="G317" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9739,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
-      </c>
-      <c r="G318" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9765,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>26</v>
-      </c>
-      <c r="G319" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9791,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>44</v>
-      </c>
-      <c r="G320" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9817,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>26</v>
-      </c>
-      <c r="G321" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9843,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>44</v>
-      </c>
-      <c r="G322" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9869,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>26</v>
-      </c>
-      <c r="G323" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9895,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>44</v>
-      </c>
-      <c r="G324" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9921,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>26</v>
-      </c>
-      <c r="G325" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9947,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>44</v>
-      </c>
-      <c r="G326" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9973,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>26</v>
-      </c>
-      <c r="G327" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9999,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>44</v>
-      </c>
-      <c r="G328" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10025,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>26</v>
-      </c>
-      <c r="G329" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10051,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>44</v>
-      </c>
-      <c r="G330" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10077,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>26</v>
-      </c>
-      <c r="G331" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10103,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>44</v>
-      </c>
-      <c r="G332" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10129,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>26</v>
-      </c>
-      <c r="G333" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10155,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>44</v>
-      </c>
-      <c r="G334" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10181,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>26</v>
-      </c>
-      <c r="G335" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10207,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>44</v>
-      </c>
-      <c r="G336" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10233,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>26</v>
-      </c>
-      <c r="G337" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10259,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>44</v>
-      </c>
-      <c r="G338" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10285,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>26</v>
-      </c>
-      <c r="G339" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10311,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
-      </c>
-      <c r="G340" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10337,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>26</v>
-      </c>
-      <c r="G341" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10363,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>44</v>
-      </c>
-      <c r="G342" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10389,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>26</v>
-      </c>
-      <c r="G343" t="s">
-        <v>27</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10415,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>44</v>
-      </c>
-      <c r="G344" t="s">
-        <v>45</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10443,11 +9709,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
